--- a/Check.xlsx
+++ b/Check.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Дашка\Netology\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Дашка\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="65">
   <si>
     <t>№</t>
   </si>
@@ -74,33 +74,6 @@
     <t>Проверка функции выхода</t>
   </si>
   <si>
-    <t>Проверка регистрации и входа с новым Apple ID</t>
-  </si>
-  <si>
-    <t>Попытка регистрации с уже использованным Apple ID</t>
-  </si>
-  <si>
-    <t>Вход с учетной записью Facebook, связанной с аккаунтом</t>
-  </si>
-  <si>
-    <t>Проверка загрузки данных из Facebook</t>
-  </si>
-  <si>
-    <t>Попытка входа с недействительными или заблокированными данными</t>
-  </si>
-  <si>
-    <t>Проверка ошибок и сообщений</t>
-  </si>
-  <si>
-    <t>Ввод валидного номера, получение и ввод проверочного кода</t>
-  </si>
-  <si>
-    <t>Попытка входа с невалидным номером или неправильным кодом</t>
-  </si>
-  <si>
-    <t>Проверка обработки ошибок</t>
-  </si>
-  <si>
     <t>Главная страница</t>
   </si>
   <si>
@@ -179,33 +152,6 @@
     <t>Проверка выхода и возврата на экран авторизации</t>
   </si>
   <si>
-    <t>Apple ID — новый аккаунт</t>
-  </si>
-  <si>
-    <t>Проверка смены аккаунта и вход на другом устройстве</t>
-  </si>
-  <si>
-    <t>Apple ID — дубликат</t>
-  </si>
-  <si>
-    <t>Проверка обработки ошибок дубликата</t>
-  </si>
-  <si>
-    <t>Facebook — корректные данные</t>
-  </si>
-  <si>
-    <t>Facebook — некорректные данные</t>
-  </si>
-  <si>
-    <t>Телефон — валидный номер</t>
-  </si>
-  <si>
-    <t>Проверка повторной отправки и неверного кода</t>
-  </si>
-  <si>
-    <t>Телефон — невалидный номер</t>
-  </si>
-  <si>
     <t>Проверка корректности переходов</t>
   </si>
   <si>
@@ -224,9 +170,6 @@
     <t>Сортировка и фильтры</t>
   </si>
   <si>
-    <t>Проверка сортировки и фильтрации новостей</t>
-  </si>
-  <si>
     <t>Загрузка и отображение</t>
   </si>
   <si>
@@ -240,6 +183,42 @@
   </si>
   <si>
     <t>Medium</t>
+  </si>
+  <si>
+    <t>Установка и удаление приложения</t>
+  </si>
+  <si>
+    <t>Устройства</t>
+  </si>
+  <si>
+    <t>Работа приложения на различных моделях смартфонов</t>
+  </si>
+  <si>
+    <t>Создание "пустой" новости</t>
+  </si>
+  <si>
+    <t>Создание новости без заполнения полей</t>
+  </si>
+  <si>
+    <t>Создание новости с заполнением не всех полей</t>
+  </si>
+  <si>
+    <t>Проверка сортировки новостей по дате</t>
+  </si>
+  <si>
+    <t>Проверка фильтрации новостей по "активности"</t>
+  </si>
+  <si>
+    <t>Проверка фильтрации новостей по существующими и несуществующим датам</t>
+  </si>
+  <si>
+    <t>Установка</t>
+  </si>
+  <si>
+    <t>Успешная установка и корректное удаление приложения</t>
+  </si>
+  <si>
+    <t>Смартфон на Android и эмуляторы с разными версиями API</t>
   </si>
 </sst>
 </file>
@@ -315,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -334,6 +313,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -617,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -647,549 +629,563 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="2" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" s="2" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
+        <f>A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H3" s="5"/>
+        <v>51</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
+        <f t="shared" ref="A4:A22" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>49</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
+        <f>A10+1</f>
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="6" t="s">
+      <c r="E15" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
-        <v>13</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
-        <v>14</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
-        <v>15</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
-        <v>16</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="D17" s="5" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>63</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
+        <f>A17+1</f>
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="E18" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
-        <v>18</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>65</v>
-      </c>
       <c r="D19" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="H22" s="5"/>
     </row>
